--- a/Data/Unprocessed Original Data sets/England_2020_April_to_September_Social_Housing_Lettings.xlsx
+++ b/Data/Unprocessed Original Data sets/England_2020_April_to_September_Social_Housing_Lettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mhclg-my.sharepoint.com/personal/leonie_field_communities_gov_uk/Documents/Documents/Projects/CORE 20.21 Interim Report/USE TODAY/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liu2286\Documents\GitHub\ADS_year3_project_8\Data\Unprocessed Original Data sets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{AEEB1665-76DF-4B6C-9742-CE342EC3BF4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{7E45C6DA-6C4F-421A-8676-9087250F13A9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A84429F-2108-4D64-859F-E6889076AA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="868" xr2:uid="{39FBF05B-6C0D-4F81-92C8-62C9082554E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="868" activeTab="1" xr2:uid="{39FBF05B-6C0D-4F81-92C8-62C9082554E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="42" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="963">
   <si>
     <t>Summary tables</t>
   </si>
@@ -3824,24 +3824,28 @@
   <si>
     <t>https://www.gov.uk/government/statistics/social-housing-lettings-in-england-april-to-september-2020</t>
   </si>
+  <si>
+    <t>Total Lettings</t>
+    <phoneticPr fontId="65" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="10">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="####.0"/>
-    <numFmt numFmtId="168" formatCode="###0"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="###0.0%"/>
-    <numFmt numFmtId="172" formatCode="0.000000000000000%"/>
-    <numFmt numFmtId="173" formatCode="0000"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0.0%"/>
+    <numFmt numFmtId="179" formatCode="####.0"/>
+    <numFmt numFmtId="180" formatCode="###0"/>
+    <numFmt numFmtId="181" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="182" formatCode="0.0"/>
+    <numFmt numFmtId="183" formatCode="###0.0%"/>
+    <numFmt numFmtId="184" formatCode="0.000000000000000%"/>
+    <numFmt numFmtId="185" formatCode="0000"/>
   </numFmts>
-  <fonts count="65">
+  <fonts count="66">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -3851,7 +3855,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4012,7 +4016,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4230,6 +4234,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Ariel"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="11">
@@ -4536,7 +4546,7 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -4544,7 +4554,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4556,7 +4566,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
@@ -4580,7 +4590,7 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="7" fillId="9" borderId="19" applyNumberFormat="0">
+    <xf numFmtId="185" fontId="7" fillId="9" borderId="19" applyNumberFormat="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="19">
@@ -4592,19 +4602,19 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="19">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="173" fontId="11" fillId="9" borderId="19" applyNumberFormat="0">
+    <xf numFmtId="185" fontId="11" fillId="9" borderId="19" applyNumberFormat="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="19">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="173" fontId="11" fillId="9" borderId="19" applyNumberFormat="0">
+    <xf numFmtId="185" fontId="11" fillId="9" borderId="19" applyNumberFormat="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="19">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="173" fontId="11" fillId="9" borderId="20">
+    <xf numFmtId="185" fontId="11" fillId="9" borderId="20">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="20">
@@ -4644,31 +4654,31 @@
     <xf numFmtId="9" fontId="15" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4680,31 +4690,31 @@
     <xf numFmtId="9" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="15" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4722,7 +4732,7 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="19" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4761,10 +4771,10 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4776,10 +4786,10 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4794,19 +4804,19 @@
     <xf numFmtId="9" fontId="15" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="20" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="3" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="15" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4815,7 +4825,7 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4830,13 +4840,13 @@
     <xf numFmtId="9" fontId="15" fillId="3" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="20" fillId="3" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="3" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4858,7 +4868,7 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4873,13 +4883,13 @@
     <xf numFmtId="1" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="20" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="3" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4915,10 +4925,10 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="20" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="3" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="15" fillId="3" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="3" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="15" fillId="3" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="14" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4930,10 +4940,10 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="14" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="3" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="3" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="15" fillId="3" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="15" fillId="3" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="14" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4951,7 +4961,7 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="3" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4960,7 +4970,7 @@
     <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4990,13 +5000,13 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="15" fillId="3" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="15" fillId="3" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="3" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5005,10 +5015,10 @@
     <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="32" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="32" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="32" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="32" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5017,19 +5027,19 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="20" fillId="3" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="20" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="3" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="20" fillId="3" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="24" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5044,13 +5054,13 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5068,16 +5078,16 @@
     <xf numFmtId="3" fontId="13" fillId="3" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="3" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="20" fillId="3" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="3" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="3" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="3" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="20" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5127,7 +5137,7 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5237,28 +5247,28 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="3" borderId="14" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="3" borderId="14" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="3" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="3" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5270,19 +5280,19 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="3" borderId="15" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="15" fillId="3" borderId="15" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="3" borderId="13" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="15" fillId="3" borderId="13" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5300,10 +5310,10 @@
     <xf numFmtId="1" fontId="15" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="3" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="3" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="15" fillId="3" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5351,7 +5361,7 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="14" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="3" borderId="14" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="15" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5375,7 +5385,7 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="14" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="3" borderId="14" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5423,19 +5433,19 @@
     </xf>
     <xf numFmtId="3" fontId="46" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="3" borderId="0" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="3" borderId="16" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="31" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="31" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5456,7 +5466,7 @@
     <xf numFmtId="1" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5489,7 +5499,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5501,19 +5511,19 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="14" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="14" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5534,31 +5544,31 @@
     <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="15" fillId="0" borderId="0" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="0" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="13" fillId="0" borderId="12" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="13" fillId="0" borderId="12" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="15" fillId="0" borderId="14" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="14" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="13" fillId="0" borderId="0" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5594,7 +5604,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5615,54 +5625,54 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="3" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="3" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="3" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="8" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="3" borderId="8" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="14" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="3" borderId="14" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="14" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="3" borderId="14" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="20" fillId="3" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="20" fillId="3" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="20" fillId="3" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="3" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5677,10 +5687,10 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5689,19 +5699,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="14" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="14" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5747,13 +5757,13 @@
     <xf numFmtId="0" fontId="52" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="39" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="39" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="39" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="39" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="39" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="39" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5768,10 +5778,10 @@
     <xf numFmtId="0" fontId="49" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="39" fillId="3" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="39" fillId="3" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="52" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="52" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5798,7 +5808,7 @@
     <xf numFmtId="1" fontId="15" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="3" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="15" fillId="3" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5825,7 +5835,7 @@
     <xf numFmtId="9" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5837,16 +5847,16 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="39" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="39" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="54" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="54" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5880,10 +5890,10 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="3" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="15" fillId="3" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="3" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="15" fillId="3" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="15" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5895,7 +5905,7 @@
     <xf numFmtId="1" fontId="15" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5919,7 +5929,7 @@
     <xf numFmtId="9" fontId="15" fillId="3" borderId="0" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5937,7 +5947,7 @@
     <xf numFmtId="9" fontId="15" fillId="3" borderId="0" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5958,10 +5968,10 @@
     <xf numFmtId="9" fontId="20" fillId="3" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5989,7 +5999,7 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6068,7 +6078,7 @@
     <xf numFmtId="0" fontId="62" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="62" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="62" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="62" fillId="0" borderId="0" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6077,13 +6087,13 @@
     <xf numFmtId="0" fontId="62" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="62" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="62" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="62" fillId="0" borderId="18" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="63" fillId="0" borderId="0" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6118,7 +6128,16 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6127,22 +6146,13 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6181,7 +6191,16 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="14" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6190,28 +6209,19 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6220,20 +6230,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6246,6 +6250,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6899,7 +6909,7 @@
   </sheetPr>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -7096,6 +7106,7 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
+  <phoneticPr fontId="65" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B13" location="'Table 1a'!A1" display="Table 1a: New social housing lettings by housing type and provider, 2004/05 to 2019/20" xr:uid="{A386697A-0BB5-4553-9659-7B0A1705DFF9}"/>
     <hyperlink ref="B16" location="'Table 1d'!A1" display="Table 1d: Reported social housing lettings by local authority location of property, 2018/19 and 2019/20" xr:uid="{AA30AFDF-2292-4638-8E49-ED2DAD722DEE}"/>
@@ -7186,25 +7197,25 @@
       <c r="C1" s="206"/>
     </row>
     <row r="2" spans="1:64" ht="14.1" customHeight="1">
-      <c r="O2" s="528" t="s">
+      <c r="O2" s="530" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="529" t="s">
+      <c r="P2" s="531" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="529"/>
-      <c r="R2" s="529"/>
+      <c r="Q2" s="531"/>
+      <c r="R2" s="531"/>
       <c r="S2" s="481"/>
-      <c r="T2" s="529" t="s">
+      <c r="T2" s="531" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="529"/>
-      <c r="V2" s="529"/>
-      <c r="W2" s="529" t="s">
+      <c r="U2" s="531"/>
+      <c r="V2" s="531"/>
+      <c r="W2" s="531" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="529"/>
-      <c r="Y2" s="529"/>
+      <c r="X2" s="531"/>
+      <c r="Y2" s="531"/>
     </row>
     <row r="3" spans="1:64" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A3" s="492" t="s">
@@ -7215,17 +7226,17 @@
       <c r="D3" s="6"/>
       <c r="E3" s="393"/>
       <c r="K3" s="421"/>
-      <c r="O3" s="528"/>
-      <c r="P3" s="529"/>
-      <c r="Q3" s="529"/>
-      <c r="R3" s="529"/>
+      <c r="O3" s="530"/>
+      <c r="P3" s="531"/>
+      <c r="Q3" s="531"/>
+      <c r="R3" s="531"/>
       <c r="S3" s="481"/>
-      <c r="T3" s="529"/>
-      <c r="U3" s="529"/>
-      <c r="V3" s="529"/>
-      <c r="W3" s="529"/>
-      <c r="X3" s="529"/>
-      <c r="Y3" s="529"/>
+      <c r="T3" s="531"/>
+      <c r="U3" s="531"/>
+      <c r="V3" s="531"/>
+      <c r="W3" s="531"/>
+      <c r="X3" s="531"/>
+      <c r="Y3" s="531"/>
       <c r="Z3" s="10"/>
       <c r="AA3" s="7"/>
       <c r="AH3" s="48"/>
@@ -7329,105 +7340,105 @@
         <v>14</v>
       </c>
       <c r="C6" s="470"/>
-      <c r="D6" s="525" t="s">
+      <c r="D6" s="528" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="525"/>
-      <c r="F6" s="525"/>
-      <c r="G6" s="525" t="s">
+      <c r="E6" s="528"/>
+      <c r="F6" s="528"/>
+      <c r="G6" s="528" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="525"/>
-      <c r="I6" s="525"/>
+      <c r="H6" s="528"/>
+      <c r="I6" s="528"/>
       <c r="J6" s="462"/>
-      <c r="K6" s="525" t="s">
+      <c r="K6" s="528" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="525"/>
-      <c r="M6" s="525"/>
-      <c r="N6" s="525" t="s">
+      <c r="L6" s="528"/>
+      <c r="M6" s="528"/>
+      <c r="N6" s="528" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="525"/>
-      <c r="P6" s="525"/>
+      <c r="O6" s="528"/>
+      <c r="P6" s="528"/>
       <c r="R6" s="542" t="s">
         <v>14</v>
       </c>
-      <c r="T6" s="525" t="s">
+      <c r="T6" s="528" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="525"/>
-      <c r="V6" s="525"/>
-      <c r="W6" s="525" t="s">
+      <c r="U6" s="528"/>
+      <c r="V6" s="528"/>
+      <c r="W6" s="528" t="s">
         <v>19</v>
       </c>
-      <c r="X6" s="525"/>
-      <c r="Y6" s="525"/>
+      <c r="X6" s="528"/>
+      <c r="Y6" s="528"/>
       <c r="Z6" s="462"/>
-      <c r="AA6" s="525" t="s">
+      <c r="AA6" s="528" t="s">
         <v>20</v>
       </c>
-      <c r="AB6" s="525"/>
-      <c r="AC6" s="525"/>
-      <c r="AD6" s="525" t="s">
+      <c r="AB6" s="528"/>
+      <c r="AC6" s="528"/>
+      <c r="AD6" s="528" t="s">
         <v>21</v>
       </c>
-      <c r="AE6" s="525"/>
-      <c r="AF6" s="525"/>
+      <c r="AE6" s="528"/>
+      <c r="AF6" s="528"/>
       <c r="AH6" s="542" t="s">
         <v>14</v>
       </c>
-      <c r="AJ6" s="525" t="s">
+      <c r="AJ6" s="528" t="s">
         <v>18</v>
       </c>
-      <c r="AK6" s="525"/>
-      <c r="AL6" s="525"/>
-      <c r="AM6" s="525" t="s">
+      <c r="AK6" s="528"/>
+      <c r="AL6" s="528"/>
+      <c r="AM6" s="528" t="s">
         <v>19</v>
       </c>
-      <c r="AN6" s="525"/>
-      <c r="AO6" s="525"/>
+      <c r="AN6" s="528"/>
+      <c r="AO6" s="528"/>
       <c r="AP6" s="462"/>
-      <c r="AQ6" s="525" t="s">
+      <c r="AQ6" s="528" t="s">
         <v>20</v>
       </c>
-      <c r="AR6" s="525"/>
-      <c r="AS6" s="525"/>
-      <c r="AT6" s="525" t="s">
+      <c r="AR6" s="528"/>
+      <c r="AS6" s="528"/>
+      <c r="AT6" s="528" t="s">
         <v>21</v>
       </c>
-      <c r="AU6" s="525"/>
-      <c r="AV6" s="525"/>
+      <c r="AU6" s="528"/>
+      <c r="AV6" s="528"/>
       <c r="AX6" s="542" t="s">
         <v>14</v>
       </c>
-      <c r="AZ6" s="525" t="s">
+      <c r="AZ6" s="528" t="s">
         <v>18</v>
       </c>
-      <c r="BA6" s="525"/>
-      <c r="BB6" s="525"/>
-      <c r="BC6" s="525" t="s">
+      <c r="BA6" s="528"/>
+      <c r="BB6" s="528"/>
+      <c r="BC6" s="528" t="s">
         <v>19</v>
       </c>
-      <c r="BD6" s="525"/>
-      <c r="BE6" s="525"/>
+      <c r="BD6" s="528"/>
+      <c r="BE6" s="528"/>
       <c r="BF6" s="462"/>
-      <c r="BG6" s="525" t="s">
+      <c r="BG6" s="528" t="s">
         <v>20</v>
       </c>
-      <c r="BH6" s="525"/>
-      <c r="BI6" s="525"/>
-      <c r="BJ6" s="525" t="s">
+      <c r="BH6" s="528"/>
+      <c r="BI6" s="528"/>
+      <c r="BJ6" s="528" t="s">
         <v>21</v>
       </c>
-      <c r="BK6" s="525"/>
-      <c r="BL6" s="525"/>
+      <c r="BK6" s="528"/>
+      <c r="BL6" s="528"/>
     </row>
     <row r="7" spans="1:64" s="11" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A7" s="456" t="s">
         <v>905</v>
       </c>
-      <c r="B7" s="526"/>
+      <c r="B7" s="529"/>
       <c r="C7" s="471"/>
       <c r="D7" s="463" t="s">
         <v>25</v>
@@ -7467,7 +7478,7 @@
         <v>27</v>
       </c>
       <c r="Q7" s="152"/>
-      <c r="R7" s="526"/>
+      <c r="R7" s="529"/>
       <c r="S7" s="152"/>
       <c r="T7" s="463" t="s">
         <v>25</v>
@@ -7506,7 +7517,7 @@
       <c r="AF7" s="463" t="s">
         <v>27</v>
       </c>
-      <c r="AH7" s="526"/>
+      <c r="AH7" s="529"/>
       <c r="AJ7" s="463" t="s">
         <v>25</v>
       </c>
@@ -7544,7 +7555,7 @@
       <c r="AV7" s="463" t="s">
         <v>27</v>
       </c>
-      <c r="AX7" s="526"/>
+      <c r="AX7" s="529"/>
       <c r="AZ7" s="463" t="s">
         <v>25</v>
       </c>
@@ -9805,51 +9816,51 @@
         <v>14</v>
       </c>
       <c r="C26" s="470"/>
-      <c r="D26" s="525" t="s">
+      <c r="D26" s="528" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="525"/>
-      <c r="F26" s="525"/>
-      <c r="G26" s="525" t="s">
+      <c r="E26" s="528"/>
+      <c r="F26" s="528"/>
+      <c r="G26" s="528" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="525"/>
-      <c r="I26" s="525"/>
+      <c r="H26" s="528"/>
+      <c r="I26" s="528"/>
       <c r="J26" s="462"/>
-      <c r="K26" s="525" t="s">
+      <c r="K26" s="528" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="525"/>
-      <c r="M26" s="525"/>
-      <c r="N26" s="525" t="s">
+      <c r="L26" s="528"/>
+      <c r="M26" s="528"/>
+      <c r="N26" s="528" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="525"/>
-      <c r="P26" s="525"/>
+      <c r="O26" s="528"/>
+      <c r="P26" s="528"/>
       <c r="R26" s="542" t="s">
         <v>14</v>
       </c>
-      <c r="T26" s="525" t="s">
+      <c r="T26" s="528" t="s">
         <v>18</v>
       </c>
-      <c r="U26" s="525"/>
-      <c r="V26" s="525"/>
-      <c r="W26" s="525" t="s">
+      <c r="U26" s="528"/>
+      <c r="V26" s="528"/>
+      <c r="W26" s="528" t="s">
         <v>19</v>
       </c>
-      <c r="X26" s="525"/>
-      <c r="Y26" s="525"/>
+      <c r="X26" s="528"/>
+      <c r="Y26" s="528"/>
       <c r="Z26" s="462"/>
-      <c r="AA26" s="525" t="s">
+      <c r="AA26" s="528" t="s">
         <v>20</v>
       </c>
-      <c r="AB26" s="525"/>
-      <c r="AC26" s="525"/>
-      <c r="AD26" s="525" t="s">
+      <c r="AB26" s="528"/>
+      <c r="AC26" s="528"/>
+      <c r="AD26" s="528" t="s">
         <v>21</v>
       </c>
-      <c r="AE26" s="525"/>
-      <c r="AF26" s="525"/>
+      <c r="AE26" s="528"/>
+      <c r="AF26" s="528"/>
       <c r="AH26" s="33"/>
       <c r="AX26" s="33"/>
     </row>
@@ -9857,7 +9868,7 @@
       <c r="A27" s="456" t="s">
         <v>906</v>
       </c>
-      <c r="B27" s="526"/>
+      <c r="B27" s="529"/>
       <c r="C27" s="471"/>
       <c r="D27" s="463" t="s">
         <v>25</v>
@@ -9897,7 +9908,7 @@
         <v>27</v>
       </c>
       <c r="Q27" s="152"/>
-      <c r="R27" s="526"/>
+      <c r="R27" s="529"/>
       <c r="S27" s="152"/>
       <c r="T27" s="463" t="s">
         <v>25</v>
@@ -12229,16 +12240,22 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="AD6:AF6"/>
-    <mergeCell ref="T2:V3"/>
-    <mergeCell ref="W2:Y3"/>
-    <mergeCell ref="R5:AF5"/>
-    <mergeCell ref="B5:P5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="A48:P48"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:R3"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AH5:AV5"/>
+    <mergeCell ref="A46:T47"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="D6:F6"/>
     <mergeCell ref="AX6:AX7"/>
     <mergeCell ref="AX5:BL5"/>
     <mergeCell ref="AA26:AC26"/>
@@ -12255,23 +12272,18 @@
     <mergeCell ref="T26:V26"/>
     <mergeCell ref="W26:Y26"/>
     <mergeCell ref="AA6:AC6"/>
-    <mergeCell ref="A48:P48"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:R3"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AH5:AV5"/>
-    <mergeCell ref="A46:T47"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="AD6:AF6"/>
+    <mergeCell ref="T2:V3"/>
+    <mergeCell ref="W2:Y3"/>
+    <mergeCell ref="R5:AF5"/>
+    <mergeCell ref="B5:P5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Y6"/>
   </mergeCells>
+  <phoneticPr fontId="65" type="noConversion"/>
   <conditionalFormatting sqref="E24">
     <cfRule type="expression" dxfId="18" priority="2" stopIfTrue="1">
       <formula>AND(#REF!&lt;0.5)</formula>
@@ -12340,23 +12352,23 @@
     </row>
     <row r="2" spans="1:25" s="154" customFormat="1" ht="14.25" customHeight="1">
       <c r="B2" s="153"/>
-      <c r="I2" s="528" t="s">
+      <c r="I2" s="530" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="528"/>
-      <c r="K2" s="529" t="s">
+      <c r="J2" s="530"/>
+      <c r="K2" s="531" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="529"/>
-      <c r="M2" s="529"/>
-      <c r="N2" s="529" t="s">
+      <c r="L2" s="531"/>
+      <c r="M2" s="531"/>
+      <c r="N2" s="531" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="529"/>
-      <c r="P2" s="529" t="s">
+      <c r="O2" s="531"/>
+      <c r="P2" s="531" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="529"/>
+      <c r="Q2" s="531"/>
       <c r="T2" s="155"/>
       <c r="U2" s="155"/>
       <c r="V2" s="155"/>
@@ -12375,15 +12387,15 @@
       <c r="F3" s="541"/>
       <c r="G3" s="541"/>
       <c r="H3" s="541"/>
-      <c r="I3" s="528"/>
-      <c r="J3" s="528"/>
-      <c r="K3" s="529"/>
-      <c r="L3" s="529"/>
-      <c r="M3" s="529"/>
-      <c r="N3" s="529"/>
-      <c r="O3" s="529"/>
-      <c r="P3" s="529"/>
-      <c r="Q3" s="529"/>
+      <c r="I3" s="530"/>
+      <c r="J3" s="530"/>
+      <c r="K3" s="531"/>
+      <c r="L3" s="531"/>
+      <c r="M3" s="531"/>
+      <c r="N3" s="531"/>
+      <c r="O3" s="531"/>
+      <c r="P3" s="531"/>
+      <c r="Q3" s="531"/>
     </row>
     <row r="4" spans="1:25" s="27" customFormat="1" ht="14.25" customHeight="1">
       <c r="J4" s="92"/>
@@ -12396,29 +12408,29 @@
       <c r="A5" s="247" t="s">
         <v>836</v>
       </c>
-      <c r="B5" s="525" t="s">
+      <c r="B5" s="528" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="525"/>
-      <c r="D5" s="525"/>
+      <c r="C5" s="528"/>
+      <c r="D5" s="528"/>
       <c r="E5" s="196"/>
-      <c r="F5" s="525" t="s">
+      <c r="F5" s="528" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="525"/>
-      <c r="H5" s="525"/>
+      <c r="G5" s="528"/>
+      <c r="H5" s="528"/>
       <c r="I5" s="196"/>
-      <c r="J5" s="525" t="s">
+      <c r="J5" s="528" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="525"/>
-      <c r="L5" s="525"/>
+      <c r="K5" s="528"/>
+      <c r="L5" s="528"/>
       <c r="M5" s="384"/>
-      <c r="N5" s="525" t="s">
+      <c r="N5" s="528" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="525"/>
-      <c r="P5" s="525"/>
+      <c r="O5" s="528"/>
+      <c r="P5" s="528"/>
       <c r="Q5" s="196"/>
     </row>
     <row r="6" spans="1:25" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -13004,17 +13016,17 @@
       <c r="A19" s="371" t="s">
         <v>835</v>
       </c>
-      <c r="B19" s="525" t="s">
+      <c r="B19" s="528" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="525"/>
-      <c r="D19" s="525"/>
+      <c r="C19" s="528"/>
+      <c r="D19" s="528"/>
       <c r="E19" s="369"/>
-      <c r="F19" s="525" t="s">
+      <c r="F19" s="528" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="525"/>
-      <c r="H19" s="525"/>
+      <c r="G19" s="528"/>
+      <c r="H19" s="528"/>
       <c r="I19" s="369"/>
     </row>
     <row r="20" spans="1:24" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -13349,17 +13361,17 @@
     </row>
     <row r="31" spans="1:24" s="18" customFormat="1" ht="41.25" customHeight="1">
       <c r="A31" s="371"/>
-      <c r="B31" s="525" t="s">
+      <c r="B31" s="528" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="525"/>
-      <c r="D31" s="525"/>
+      <c r="C31" s="528"/>
+      <c r="D31" s="528"/>
       <c r="E31" s="369"/>
-      <c r="F31" s="525" t="s">
+      <c r="F31" s="528" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="525"/>
-      <c r="H31" s="525"/>
+      <c r="G31" s="528"/>
+      <c r="H31" s="528"/>
       <c r="Q31" s="51"/>
     </row>
     <row r="32" spans="1:24" s="18" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
@@ -13688,6 +13700,7 @@
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="I2:J3"/>
   </mergeCells>
+  <phoneticPr fontId="65" type="noConversion"/>
   <conditionalFormatting sqref="C44:C45">
     <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
       <formula>AND(#REF!&lt;0.5)</formula>
@@ -13744,21 +13757,21 @@
     <row r="2" spans="1:25" s="154" customFormat="1" ht="14.25" customHeight="1">
       <c r="B2" s="153"/>
       <c r="J2" s="153"/>
-      <c r="N2" s="528" t="s">
+      <c r="N2" s="530" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="529" t="s">
+      <c r="O2" s="531" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="529"/>
-      <c r="Q2" s="529" t="s">
+      <c r="P2" s="531"/>
+      <c r="Q2" s="531" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="529"/>
-      <c r="S2" s="529" t="s">
+      <c r="R2" s="531"/>
+      <c r="S2" s="531" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="529"/>
+      <c r="T2" s="531"/>
       <c r="U2" s="155"/>
       <c r="V2" s="155"/>
       <c r="W2" s="155"/>
@@ -13769,48 +13782,48 @@
       <c r="A3" s="97" t="s">
         <v>841</v>
       </c>
-      <c r="N3" s="528"/>
-      <c r="O3" s="529"/>
-      <c r="P3" s="529"/>
-      <c r="Q3" s="529"/>
-      <c r="R3" s="529"/>
-      <c r="S3" s="529"/>
-      <c r="T3" s="529"/>
+      <c r="N3" s="530"/>
+      <c r="O3" s="531"/>
+      <c r="P3" s="531"/>
+      <c r="Q3" s="531"/>
+      <c r="R3" s="531"/>
+      <c r="S3" s="531"/>
+      <c r="T3" s="531"/>
     </row>
     <row r="4" spans="1:25" s="98" customFormat="1" ht="12.75" customHeight="1">
       <c r="I4" s="360"/>
     </row>
     <row r="5" spans="1:25" s="99" customFormat="1" ht="27" customHeight="1">
-      <c r="A5" s="546" t="s">
+      <c r="A5" s="549" t="s">
         <v>836</v>
       </c>
-      <c r="B5" s="548" t="s">
+      <c r="B5" s="547" t="s">
         <v>733</v>
       </c>
-      <c r="D5" s="545" t="s">
+      <c r="D5" s="546" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="545"/>
-      <c r="F5" s="545"/>
-      <c r="G5" s="545" t="s">
+      <c r="E5" s="546"/>
+      <c r="F5" s="546"/>
+      <c r="G5" s="546" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="545"/>
-      <c r="I5" s="545"/>
-      <c r="K5" s="545" t="s">
+      <c r="H5" s="546"/>
+      <c r="I5" s="546"/>
+      <c r="K5" s="546" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="545"/>
-      <c r="M5" s="545"/>
-      <c r="N5" s="545" t="s">
+      <c r="L5" s="546"/>
+      <c r="M5" s="546"/>
+      <c r="N5" s="546" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="545"/>
-      <c r="P5" s="545"/>
+      <c r="O5" s="546"/>
+      <c r="P5" s="546"/>
     </row>
     <row r="6" spans="1:25" s="99" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="547"/>
-      <c r="B6" s="549"/>
+      <c r="A6" s="550"/>
+      <c r="B6" s="548"/>
       <c r="D6" s="251" t="s">
         <v>25</v>
       </c>
@@ -14350,35 +14363,35 @@
     </row>
     <row r="19" spans="1:28" s="99" customFormat="1" ht="13.5" customHeight="1">
       <c r="A19" s="159"/>
-      <c r="B19" s="548" t="s">
+      <c r="B19" s="547" t="s">
         <v>733</v>
       </c>
-      <c r="D19" s="545" t="s">
+      <c r="D19" s="546" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="545"/>
-      <c r="F19" s="545"/>
-      <c r="G19" s="545" t="s">
+      <c r="E19" s="546"/>
+      <c r="F19" s="546"/>
+      <c r="G19" s="546" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="545"/>
-      <c r="I19" s="545"/>
-      <c r="K19" s="545" t="s">
+      <c r="H19" s="546"/>
+      <c r="I19" s="546"/>
+      <c r="K19" s="546" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="545"/>
-      <c r="M19" s="545"/>
-      <c r="N19" s="545" t="s">
+      <c r="L19" s="546"/>
+      <c r="M19" s="546"/>
+      <c r="N19" s="546" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="545"/>
-      <c r="P19" s="545"/>
+      <c r="O19" s="546"/>
+      <c r="P19" s="546"/>
     </row>
     <row r="20" spans="1:28" s="99" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A20" s="258" t="s">
         <v>717</v>
       </c>
-      <c r="B20" s="549"/>
+      <c r="B20" s="548"/>
       <c r="D20" s="251" t="s">
         <v>25</v>
       </c>
@@ -14909,36 +14922,36 @@
       <c r="T33" s="162"/>
     </row>
     <row r="34" spans="1:20" s="99" customFormat="1" ht="27" customHeight="1">
-      <c r="A34" s="546" t="s">
+      <c r="A34" s="549" t="s">
         <v>835</v>
       </c>
-      <c r="B34" s="548" t="s">
+      <c r="B34" s="547" t="s">
         <v>733</v>
       </c>
-      <c r="D34" s="545" t="s">
+      <c r="D34" s="546" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="545"/>
-      <c r="F34" s="545"/>
-      <c r="G34" s="545" t="s">
+      <c r="E34" s="546"/>
+      <c r="F34" s="546"/>
+      <c r="G34" s="546" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="545"/>
-      <c r="I34" s="545"/>
-      <c r="K34" s="545" t="s">
+      <c r="H34" s="546"/>
+      <c r="I34" s="546"/>
+      <c r="K34" s="546" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="545"/>
-      <c r="M34" s="545"/>
-      <c r="N34" s="545" t="s">
+      <c r="L34" s="546"/>
+      <c r="M34" s="546"/>
+      <c r="N34" s="546" t="s">
         <v>21</v>
       </c>
-      <c r="O34" s="545"/>
-      <c r="P34" s="545"/>
+      <c r="O34" s="546"/>
+      <c r="P34" s="546"/>
     </row>
     <row r="35" spans="1:20" s="99" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A35" s="547"/>
-      <c r="B35" s="549"/>
+      <c r="A35" s="550"/>
+      <c r="B35" s="548"/>
       <c r="D35" s="251" t="s">
         <v>25</v>
       </c>
@@ -15478,35 +15491,35 @@
     </row>
     <row r="48" spans="1:20" s="99" customFormat="1" ht="13.5" customHeight="1">
       <c r="A48" s="159"/>
-      <c r="B48" s="548" t="s">
+      <c r="B48" s="547" t="s">
         <v>733</v>
       </c>
-      <c r="D48" s="545" t="s">
+      <c r="D48" s="546" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="545"/>
-      <c r="F48" s="545"/>
-      <c r="G48" s="545" t="s">
+      <c r="E48" s="546"/>
+      <c r="F48" s="546"/>
+      <c r="G48" s="546" t="s">
         <v>19</v>
       </c>
-      <c r="H48" s="545"/>
-      <c r="I48" s="545"/>
-      <c r="K48" s="545" t="s">
+      <c r="H48" s="546"/>
+      <c r="I48" s="546"/>
+      <c r="K48" s="546" t="s">
         <v>20</v>
       </c>
-      <c r="L48" s="545"/>
-      <c r="M48" s="545"/>
-      <c r="N48" s="545" t="s">
+      <c r="L48" s="546"/>
+      <c r="M48" s="546"/>
+      <c r="N48" s="546" t="s">
         <v>21</v>
       </c>
-      <c r="O48" s="545"/>
-      <c r="P48" s="545"/>
+      <c r="O48" s="546"/>
+      <c r="P48" s="546"/>
     </row>
     <row r="49" spans="1:25" s="99" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A49" s="258" t="s">
         <v>717</v>
       </c>
-      <c r="B49" s="549"/>
+      <c r="B49" s="548"/>
       <c r="D49" s="251" t="s">
         <v>25</v>
       </c>
@@ -16124,17 +16137,17 @@
       <c r="Y67" s="114"/>
     </row>
     <row r="68" spans="1:29" s="99" customFormat="1" ht="54.6" customHeight="1">
-      <c r="A68" s="550" t="s">
+      <c r="A68" s="545" t="s">
         <v>749</v>
       </c>
-      <c r="B68" s="550"/>
-      <c r="C68" s="550"/>
-      <c r="D68" s="550"/>
-      <c r="E68" s="550"/>
-      <c r="F68" s="550"/>
-      <c r="G68" s="550"/>
-      <c r="H68" s="550"/>
-      <c r="I68" s="550"/>
+      <c r="B68" s="545"/>
+      <c r="C68" s="545"/>
+      <c r="D68" s="545"/>
+      <c r="E68" s="545"/>
+      <c r="F68" s="545"/>
+      <c r="G68" s="545"/>
+      <c r="H68" s="545"/>
+      <c r="I68" s="545"/>
       <c r="J68" s="115"/>
       <c r="K68" s="115"/>
       <c r="L68" s="115"/>
@@ -16396,6 +16409,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:P3"/>
     <mergeCell ref="Q2:R3"/>
@@ -16412,18 +16436,8 @@
     <mergeCell ref="G48:I48"/>
     <mergeCell ref="K48:M48"/>
     <mergeCell ref="N48:P48"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
   </mergeCells>
+  <phoneticPr fontId="65" type="noConversion"/>
   <conditionalFormatting sqref="C75:C76">
     <cfRule type="expression" dxfId="14" priority="2" stopIfTrue="1">
       <formula>AND(#REF!&lt;0.5)</formula>
@@ -16483,7 +16497,7 @@
     <row r="2" spans="1:25" s="299" customFormat="1" ht="14.25" customHeight="1">
       <c r="B2" s="298"/>
       <c r="J2" s="298"/>
-      <c r="M2" s="560" t="s">
+      <c r="M2" s="553" t="s">
         <v>10</v>
       </c>
       <c r="N2" s="552" t="s">
@@ -16518,7 +16532,7 @@
       <c r="H3" s="431"/>
       <c r="I3" s="431"/>
       <c r="J3" s="431"/>
-      <c r="M3" s="560"/>
+      <c r="M3" s="553"/>
       <c r="N3" s="552"/>
       <c r="O3" s="552"/>
       <c r="P3" s="552"/>
@@ -16543,35 +16557,35 @@
       <c r="N4" s="303"/>
     </row>
     <row r="5" spans="1:25" s="304" customFormat="1" ht="27" customHeight="1">
-      <c r="A5" s="554" t="s">
+      <c r="A5" s="559" t="s">
         <v>836</v>
       </c>
       <c r="B5" s="556" t="s">
         <v>733</v>
       </c>
-      <c r="D5" s="553" t="s">
+      <c r="D5" s="551" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="553"/>
-      <c r="F5" s="553"/>
-      <c r="G5" s="553" t="s">
+      <c r="E5" s="551"/>
+      <c r="F5" s="551"/>
+      <c r="G5" s="551" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="553"/>
-      <c r="I5" s="553"/>
-      <c r="K5" s="553" t="s">
+      <c r="H5" s="551"/>
+      <c r="I5" s="551"/>
+      <c r="K5" s="551" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="553"/>
-      <c r="M5" s="553"/>
-      <c r="N5" s="553" t="s">
+      <c r="L5" s="551"/>
+      <c r="M5" s="551"/>
+      <c r="N5" s="551" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="553"/>
-      <c r="P5" s="553"/>
+      <c r="O5" s="551"/>
+      <c r="P5" s="551"/>
     </row>
     <row r="6" spans="1:25" s="304" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A6" s="555"/>
+      <c r="A6" s="560"/>
       <c r="B6" s="557"/>
       <c r="D6" s="305" t="s">
         <v>25</v>
@@ -17120,35 +17134,35 @@
       <c r="P18" s="323"/>
     </row>
     <row r="19" spans="1:23" s="304" customFormat="1" ht="27" customHeight="1">
-      <c r="A19" s="558" t="s">
+      <c r="A19" s="554" t="s">
         <v>717</v>
       </c>
       <c r="B19" s="556" t="s">
         <v>733</v>
       </c>
-      <c r="D19" s="553" t="s">
+      <c r="D19" s="551" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="553"/>
-      <c r="F19" s="553"/>
-      <c r="G19" s="553" t="s">
+      <c r="E19" s="551"/>
+      <c r="F19" s="551"/>
+      <c r="G19" s="551" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="553"/>
-      <c r="I19" s="553"/>
-      <c r="K19" s="553" t="s">
+      <c r="H19" s="551"/>
+      <c r="I19" s="551"/>
+      <c r="K19" s="551" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="553"/>
-      <c r="M19" s="553"/>
-      <c r="N19" s="553" t="s">
+      <c r="L19" s="551"/>
+      <c r="M19" s="551"/>
+      <c r="N19" s="551" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="553"/>
-      <c r="P19" s="553"/>
+      <c r="O19" s="551"/>
+      <c r="P19" s="551"/>
     </row>
     <row r="20" spans="1:23" s="304" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A20" s="559"/>
+      <c r="A20" s="555"/>
       <c r="B20" s="557"/>
       <c r="D20" s="305" t="s">
         <v>25</v>
@@ -17672,35 +17686,35 @@
       <c r="P32" s="338"/>
     </row>
     <row r="33" spans="1:18" s="304" customFormat="1" ht="27" customHeight="1">
-      <c r="A33" s="554" t="s">
+      <c r="A33" s="559" t="s">
         <v>835</v>
       </c>
       <c r="B33" s="556" t="s">
         <v>733</v>
       </c>
-      <c r="D33" s="553" t="s">
+      <c r="D33" s="551" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="553"/>
-      <c r="F33" s="553"/>
-      <c r="G33" s="553" t="s">
+      <c r="E33" s="551"/>
+      <c r="F33" s="551"/>
+      <c r="G33" s="551" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="553"/>
-      <c r="I33" s="553"/>
-      <c r="K33" s="553" t="s">
+      <c r="H33" s="551"/>
+      <c r="I33" s="551"/>
+      <c r="K33" s="551" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="553"/>
-      <c r="M33" s="553"/>
-      <c r="N33" s="553" t="s">
+      <c r="L33" s="551"/>
+      <c r="M33" s="551"/>
+      <c r="N33" s="551" t="s">
         <v>21</v>
       </c>
-      <c r="O33" s="553"/>
-      <c r="P33" s="553"/>
+      <c r="O33" s="551"/>
+      <c r="P33" s="551"/>
     </row>
     <row r="34" spans="1:18" s="433" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A34" s="555"/>
+      <c r="A34" s="560"/>
       <c r="B34" s="557"/>
       <c r="D34" s="434" t="s">
         <v>25</v>
@@ -18238,35 +18252,35 @@
       <c r="P46" s="323"/>
     </row>
     <row r="47" spans="1:18" s="304" customFormat="1" ht="27" customHeight="1">
-      <c r="A47" s="558" t="s">
+      <c r="A47" s="554" t="s">
         <v>717</v>
       </c>
       <c r="B47" s="556" t="s">
         <v>733</v>
       </c>
-      <c r="D47" s="553" t="s">
+      <c r="D47" s="551" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="553"/>
-      <c r="F47" s="553"/>
-      <c r="G47" s="553" t="s">
+      <c r="E47" s="551"/>
+      <c r="F47" s="551"/>
+      <c r="G47" s="551" t="s">
         <v>19</v>
       </c>
-      <c r="H47" s="553"/>
-      <c r="I47" s="553"/>
-      <c r="K47" s="553" t="s">
+      <c r="H47" s="551"/>
+      <c r="I47" s="551"/>
+      <c r="K47" s="551" t="s">
         <v>20</v>
       </c>
-      <c r="L47" s="553"/>
-      <c r="M47" s="553"/>
-      <c r="N47" s="553" t="s">
+      <c r="L47" s="551"/>
+      <c r="M47" s="551"/>
+      <c r="N47" s="551" t="s">
         <v>21</v>
       </c>
-      <c r="O47" s="553"/>
-      <c r="P47" s="553"/>
+      <c r="O47" s="551"/>
+      <c r="P47" s="551"/>
     </row>
     <row r="48" spans="1:18" s="304" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A48" s="559"/>
+      <c r="A48" s="555"/>
       <c r="B48" s="557"/>
       <c r="D48" s="305" t="s">
         <v>25</v>
@@ -18808,15 +18822,15 @@
       <c r="U62" s="302"/>
     </row>
     <row r="63" spans="1:23" ht="27" customHeight="1">
-      <c r="A63" s="551" t="s">
+      <c r="A63" s="558" t="s">
         <v>855</v>
       </c>
-      <c r="B63" s="551"/>
-      <c r="C63" s="551"/>
-      <c r="D63" s="551"/>
-      <c r="E63" s="551"/>
-      <c r="F63" s="551"/>
-      <c r="G63" s="551"/>
+      <c r="B63" s="558"/>
+      <c r="C63" s="558"/>
+      <c r="D63" s="558"/>
+      <c r="E63" s="558"/>
+      <c r="F63" s="558"/>
+      <c r="G63" s="558"/>
       <c r="H63" s="304"/>
       <c r="I63" s="304"/>
       <c r="J63" s="304"/>
@@ -19071,19 +19085,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="R2:S3"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:M19"/>
     <mergeCell ref="A63:G63"/>
     <mergeCell ref="N2:O3"/>
     <mergeCell ref="N5:P5"/>
@@ -19100,7 +19101,21 @@
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="D33:F33"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="M2:M3"/>
   </mergeCells>
+  <phoneticPr fontId="65" type="noConversion"/>
   <conditionalFormatting sqref="C72:C73">
     <cfRule type="expression" dxfId="12" priority="2" stopIfTrue="1">
       <formula>AND(#REF!&lt;0.5)</formula>
@@ -19162,21 +19177,21 @@
     <row r="2" spans="1:25" s="154" customFormat="1" ht="14.25">
       <c r="B2" s="153"/>
       <c r="J2" s="153"/>
-      <c r="K2" s="528" t="s">
+      <c r="K2" s="530" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="529" t="s">
+      <c r="L2" s="531" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="529"/>
-      <c r="N2" s="529" t="s">
+      <c r="M2" s="531"/>
+      <c r="N2" s="531" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="529"/>
-      <c r="P2" s="529" t="s">
+      <c r="O2" s="531"/>
+      <c r="P2" s="531" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="529"/>
+      <c r="Q2" s="531"/>
       <c r="R2" s="83"/>
       <c r="T2" s="155"/>
       <c r="U2" s="155"/>
@@ -19198,22 +19213,22 @@
       <c r="H3" s="48"/>
       <c r="I3" s="182"/>
       <c r="J3" s="33"/>
-      <c r="K3" s="528"/>
-      <c r="L3" s="529"/>
-      <c r="M3" s="529"/>
-      <c r="N3" s="529"/>
-      <c r="O3" s="529"/>
-      <c r="P3" s="529"/>
-      <c r="Q3" s="529"/>
+      <c r="K3" s="530"/>
+      <c r="L3" s="531"/>
+      <c r="M3" s="531"/>
+      <c r="N3" s="531"/>
+      <c r="O3" s="531"/>
+      <c r="P3" s="531"/>
+      <c r="Q3" s="531"/>
       <c r="R3" s="18"/>
     </row>
     <row r="4" spans="1:25" s="49" customFormat="1" ht="13.5" customHeight="1">
       <c r="A4" s="203"/>
-      <c r="B4" s="561"/>
-      <c r="C4" s="561"/>
-      <c r="D4" s="561"/>
-      <c r="E4" s="561"/>
-      <c r="F4" s="561"/>
+      <c r="B4" s="566"/>
+      <c r="C4" s="566"/>
+      <c r="D4" s="566"/>
+      <c r="E4" s="566"/>
+      <c r="F4" s="566"/>
       <c r="G4" s="203"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -19226,36 +19241,36 @@
       <c r="Q4" s="124"/>
     </row>
     <row r="5" spans="1:25" s="49" customFormat="1" ht="27" customHeight="1">
-      <c r="A5" s="563" t="s">
+      <c r="A5" s="561" t="s">
         <v>836</v>
       </c>
-      <c r="B5" s="565" t="s">
+      <c r="B5" s="563" t="s">
         <v>733</v>
       </c>
-      <c r="D5" s="525" t="s">
+      <c r="D5" s="528" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="525"/>
-      <c r="F5" s="525"/>
-      <c r="G5" s="525" t="s">
+      <c r="E5" s="528"/>
+      <c r="F5" s="528"/>
+      <c r="G5" s="528" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="525"/>
-      <c r="I5" s="525"/>
-      <c r="K5" s="525" t="s">
+      <c r="H5" s="528"/>
+      <c r="I5" s="528"/>
+      <c r="K5" s="528" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="525"/>
-      <c r="M5" s="525"/>
-      <c r="N5" s="545" t="s">
+      <c r="L5" s="528"/>
+      <c r="M5" s="528"/>
+      <c r="N5" s="546" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="545"/>
-      <c r="P5" s="545"/>
+      <c r="O5" s="546"/>
+      <c r="P5" s="546"/>
     </row>
     <row r="6" spans="1:25" s="49" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A6" s="564"/>
-      <c r="B6" s="566"/>
+      <c r="A6" s="562"/>
+      <c r="B6" s="564"/>
       <c r="D6" s="292" t="s">
         <v>25</v>
       </c>
@@ -20158,36 +20173,36 @@
       <c r="L28" s="29"/>
     </row>
     <row r="29" spans="1:22" s="49" customFormat="1" ht="27" customHeight="1">
-      <c r="A29" s="563" t="s">
+      <c r="A29" s="561" t="s">
         <v>835</v>
       </c>
-      <c r="B29" s="565" t="s">
+      <c r="B29" s="563" t="s">
         <v>733</v>
       </c>
-      <c r="D29" s="525" t="s">
+      <c r="D29" s="528" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="553"/>
-      <c r="F29" s="525"/>
-      <c r="G29" s="525" t="s">
+      <c r="E29" s="551"/>
+      <c r="F29" s="528"/>
+      <c r="G29" s="528" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="525"/>
-      <c r="I29" s="525"/>
-      <c r="K29" s="525" t="s">
+      <c r="H29" s="528"/>
+      <c r="I29" s="528"/>
+      <c r="K29" s="528" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="525"/>
-      <c r="M29" s="525"/>
-      <c r="N29" s="545" t="s">
+      <c r="L29" s="528"/>
+      <c r="M29" s="528"/>
+      <c r="N29" s="546" t="s">
         <v>21</v>
       </c>
-      <c r="O29" s="545"/>
-      <c r="P29" s="545"/>
+      <c r="O29" s="546"/>
+      <c r="P29" s="546"/>
     </row>
     <row r="30" spans="1:22" s="49" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A30" s="564"/>
-      <c r="B30" s="566"/>
+      <c r="A30" s="562"/>
+      <c r="B30" s="564"/>
       <c r="D30" s="218" t="s">
         <v>25</v>
       </c>
@@ -21116,35 +21131,35 @@
       <c r="L54" s="204"/>
     </row>
     <row r="55" spans="1:29" s="49" customFormat="1" ht="12" customHeight="1">
-      <c r="A55" s="562" t="s">
+      <c r="A55" s="565" t="s">
         <v>855</v>
       </c>
-      <c r="B55" s="562"/>
-      <c r="C55" s="562"/>
-      <c r="D55" s="562"/>
-      <c r="E55" s="562"/>
-      <c r="F55" s="562"/>
-      <c r="G55" s="562"/>
-      <c r="H55" s="562"/>
-      <c r="I55" s="562"/>
-      <c r="J55" s="562"/>
-      <c r="K55" s="562"/>
-      <c r="L55" s="562"/>
+      <c r="B55" s="565"/>
+      <c r="C55" s="565"/>
+      <c r="D55" s="565"/>
+      <c r="E55" s="565"/>
+      <c r="F55" s="565"/>
+      <c r="G55" s="565"/>
+      <c r="H55" s="565"/>
+      <c r="I55" s="565"/>
+      <c r="J55" s="565"/>
+      <c r="K55" s="565"/>
+      <c r="L55" s="565"/>
       <c r="M55" s="198"/>
     </row>
     <row r="56" spans="1:29" s="49" customFormat="1" ht="12" customHeight="1">
-      <c r="A56" s="562"/>
-      <c r="B56" s="562"/>
-      <c r="C56" s="562"/>
-      <c r="D56" s="562"/>
-      <c r="E56" s="562"/>
-      <c r="F56" s="562"/>
-      <c r="G56" s="562"/>
-      <c r="H56" s="562"/>
-      <c r="I56" s="562"/>
-      <c r="J56" s="562"/>
-      <c r="K56" s="562"/>
-      <c r="L56" s="562"/>
+      <c r="A56" s="565"/>
+      <c r="B56" s="565"/>
+      <c r="C56" s="565"/>
+      <c r="D56" s="565"/>
+      <c r="E56" s="565"/>
+      <c r="F56" s="565"/>
+      <c r="G56" s="565"/>
+      <c r="H56" s="565"/>
+      <c r="I56" s="565"/>
+      <c r="J56" s="565"/>
+      <c r="K56" s="565"/>
+      <c r="L56" s="565"/>
     </row>
     <row r="57" spans="1:29" s="49" customFormat="1" ht="12">
       <c r="B57" s="18"/>
@@ -21484,16 +21499,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="A55:L56"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="N2:O3"/>
     <mergeCell ref="P2:Q3"/>
@@ -21502,7 +21507,18 @@
     <mergeCell ref="K29:M29"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:M3"/>
+    <mergeCell ref="A55:L56"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="K5:M5"/>
   </mergeCells>
+  <phoneticPr fontId="65" type="noConversion"/>
   <conditionalFormatting sqref="C63:C64">
     <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
       <formula>AND(#REF!&lt;0.5)</formula>
@@ -21567,21 +21583,21 @@
     </row>
     <row r="2" spans="1:32" s="154" customFormat="1" ht="14.1" customHeight="1">
       <c r="B2" s="153"/>
-      <c r="K2" s="528" t="s">
+      <c r="K2" s="530" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="529" t="s">
+      <c r="L2" s="531" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="529"/>
-      <c r="N2" s="529" t="s">
+      <c r="M2" s="531"/>
+      <c r="N2" s="531" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="529"/>
-      <c r="P2" s="529" t="s">
+      <c r="O2" s="531"/>
+      <c r="P2" s="531" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="529"/>
+      <c r="Q2" s="531"/>
       <c r="U2" s="155"/>
       <c r="V2" s="155"/>
       <c r="W2" s="155"/>
@@ -21598,13 +21614,13 @@
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
       <c r="G3" s="48"/>
-      <c r="K3" s="528"/>
-      <c r="L3" s="529"/>
-      <c r="M3" s="529"/>
-      <c r="N3" s="529"/>
-      <c r="O3" s="529"/>
-      <c r="P3" s="529"/>
-      <c r="Q3" s="529"/>
+      <c r="K3" s="530"/>
+      <c r="L3" s="531"/>
+      <c r="M3" s="531"/>
+      <c r="N3" s="531"/>
+      <c r="O3" s="531"/>
+      <c r="P3" s="531"/>
+      <c r="Q3" s="531"/>
       <c r="R3" s="420"/>
       <c r="T3" s="127"/>
       <c r="U3" s="163"/>
@@ -21629,37 +21645,37 @@
       <c r="A5" s="237" t="s">
         <v>836</v>
       </c>
-      <c r="B5" s="565" t="s">
+      <c r="B5" s="563" t="s">
         <v>733</v>
       </c>
       <c r="C5" s="88"/>
-      <c r="D5" s="525" t="s">
+      <c r="D5" s="528" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="525"/>
-      <c r="F5" s="525"/>
-      <c r="G5" s="525" t="s">
+      <c r="E5" s="528"/>
+      <c r="F5" s="528"/>
+      <c r="G5" s="528" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="525"/>
-      <c r="I5" s="525"/>
+      <c r="H5" s="528"/>
+      <c r="I5" s="528"/>
       <c r="J5" s="291"/>
-      <c r="K5" s="525" t="s">
+      <c r="K5" s="528" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="525"/>
-      <c r="M5" s="525"/>
-      <c r="N5" s="545" t="s">
+      <c r="L5" s="528"/>
+      <c r="M5" s="528"/>
+      <c r="N5" s="546" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="545"/>
-      <c r="P5" s="545"/>
+      <c r="O5" s="546"/>
+      <c r="P5" s="546"/>
     </row>
     <row r="6" spans="1:32" s="18" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="246" t="s">
         <v>778</v>
       </c>
-      <c r="B6" s="566"/>
+      <c r="B6" s="564"/>
       <c r="C6" s="129"/>
       <c r="D6" s="292" t="s">
         <v>25</v>
@@ -22280,37 +22296,37 @@
       <c r="A19" s="237" t="s">
         <v>835</v>
       </c>
-      <c r="B19" s="565" t="s">
+      <c r="B19" s="563" t="s">
         <v>733</v>
       </c>
       <c r="C19" s="88"/>
-      <c r="D19" s="525" t="s">
+      <c r="D19" s="528" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="525"/>
-      <c r="F19" s="525"/>
-      <c r="G19" s="525" t="s">
+      <c r="E19" s="528"/>
+      <c r="F19" s="528"/>
+      <c r="G19" s="528" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="525"/>
-      <c r="I19" s="525"/>
+      <c r="H19" s="528"/>
+      <c r="I19" s="528"/>
       <c r="J19" s="196"/>
-      <c r="K19" s="525" t="s">
+      <c r="K19" s="528" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="525"/>
-      <c r="M19" s="525"/>
-      <c r="N19" s="545" t="s">
+      <c r="L19" s="528"/>
+      <c r="M19" s="528"/>
+      <c r="N19" s="546" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="545"/>
-      <c r="P19" s="545"/>
+      <c r="O19" s="546"/>
+      <c r="P19" s="546"/>
     </row>
     <row r="20" spans="1:32" s="18" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
       <c r="A20" s="246" t="s">
         <v>778</v>
       </c>
-      <c r="B20" s="566"/>
+      <c r="B20" s="564"/>
       <c r="C20" s="129"/>
       <c r="D20" s="218" t="s">
         <v>25</v>
@@ -23461,6 +23477,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A34:Q34"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="P2:Q3"/>
     <mergeCell ref="L2:M3"/>
@@ -23477,8 +23494,8 @@
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="K19:M19"/>
     <mergeCell ref="N19:P19"/>
-    <mergeCell ref="A34:Q34"/>
   </mergeCells>
+  <phoneticPr fontId="65" type="noConversion"/>
   <conditionalFormatting sqref="C47:C48">
     <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
       <formula>AND(#REF!&lt;0.5)</formula>
@@ -23537,21 +23554,21 @@
     </row>
     <row r="2" spans="1:25" s="154" customFormat="1" ht="17.25" customHeight="1">
       <c r="B2" s="153"/>
-      <c r="J2" s="528" t="s">
+      <c r="J2" s="530" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="529" t="s">
+      <c r="K2" s="531" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="529"/>
-      <c r="M2" s="529" t="s">
+      <c r="L2" s="531"/>
+      <c r="M2" s="531" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="529"/>
-      <c r="O2" s="529" t="s">
+      <c r="N2" s="531"/>
+      <c r="O2" s="531" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="529"/>
+      <c r="P2" s="531"/>
       <c r="T2" s="155"/>
       <c r="U2" s="155"/>
       <c r="V2" s="155"/>
@@ -23569,13 +23586,13 @@
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
       <c r="G3" s="48"/>
-      <c r="J3" s="528"/>
-      <c r="K3" s="529"/>
-      <c r="L3" s="529"/>
-      <c r="M3" s="529"/>
-      <c r="N3" s="529"/>
-      <c r="O3" s="529"/>
-      <c r="P3" s="529"/>
+      <c r="J3" s="530"/>
+      <c r="K3" s="531"/>
+      <c r="L3" s="531"/>
+      <c r="M3" s="531"/>
+      <c r="N3" s="531"/>
+      <c r="O3" s="531"/>
+      <c r="P3" s="531"/>
     </row>
     <row r="4" spans="1:25" ht="16.5" customHeight="1">
       <c r="A4" s="48"/>
@@ -23593,35 +23610,35 @@
       <c r="A5" s="294" t="s">
         <v>836</v>
       </c>
-      <c r="B5" s="565" t="s">
+      <c r="B5" s="563" t="s">
         <v>733</v>
       </c>
-      <c r="C5" s="525" t="s">
+      <c r="C5" s="528" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="525"/>
-      <c r="E5" s="525"/>
-      <c r="F5" s="525" t="s">
+      <c r="D5" s="528"/>
+      <c r="E5" s="528"/>
+      <c r="F5" s="528" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="525"/>
-      <c r="H5" s="525"/>
-      <c r="I5" s="525" t="s">
+      <c r="G5" s="528"/>
+      <c r="H5" s="528"/>
+      <c r="I5" s="528" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="525"/>
-      <c r="K5" s="525"/>
-      <c r="L5" s="545" t="s">
+      <c r="J5" s="528"/>
+      <c r="K5" s="528"/>
+      <c r="L5" s="546" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="545"/>
-      <c r="N5" s="545"/>
+      <c r="M5" s="546"/>
+      <c r="N5" s="546"/>
     </row>
     <row r="6" spans="1:25" s="18" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="248" t="s">
         <v>717</v>
       </c>
-      <c r="B6" s="566"/>
+      <c r="B6" s="564"/>
       <c r="C6" s="292" t="s">
         <v>25</v>
       </c>
@@ -25152,35 +25169,35 @@
       <c r="A43" s="388" t="s">
         <v>835</v>
       </c>
-      <c r="B43" s="565" t="s">
+      <c r="B43" s="563" t="s">
         <v>733</v>
       </c>
-      <c r="C43" s="525" t="s">
+      <c r="C43" s="528" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="525"/>
-      <c r="E43" s="525"/>
-      <c r="F43" s="525" t="s">
+      <c r="D43" s="528"/>
+      <c r="E43" s="528"/>
+      <c r="F43" s="528" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="525"/>
-      <c r="H43" s="525"/>
-      <c r="I43" s="525" t="s">
+      <c r="G43" s="528"/>
+      <c r="H43" s="528"/>
+      <c r="I43" s="528" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="525"/>
-      <c r="K43" s="525"/>
-      <c r="L43" s="545" t="s">
+      <c r="J43" s="528"/>
+      <c r="K43" s="528"/>
+      <c r="L43" s="546" t="s">
         <v>21</v>
       </c>
-      <c r="M43" s="545"/>
-      <c r="N43" s="545"/>
+      <c r="M43" s="546"/>
+      <c r="N43" s="546"/>
     </row>
     <row r="44" spans="1:14" s="18" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
       <c r="A44" s="248" t="s">
         <v>717</v>
       </c>
-      <c r="B44" s="566"/>
+      <c r="B44" s="564"/>
       <c r="C44" s="385" t="s">
         <v>25</v>
       </c>
@@ -27031,6 +27048,7 @@
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F43:H43"/>
   </mergeCells>
+  <phoneticPr fontId="65" type="noConversion"/>
   <conditionalFormatting sqref="C88:C89">
     <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
       <formula>AND(#REF!&lt;0.5)</formula>
@@ -27155,17 +27173,17 @@
     </row>
     <row r="4" spans="1:30" s="18" customFormat="1" ht="12">
       <c r="A4" s="27"/>
-      <c r="B4" s="525"/>
+      <c r="B4" s="528"/>
       <c r="C4" s="567"/>
       <c r="D4" s="372"/>
       <c r="E4" s="496"/>
-      <c r="F4" s="525"/>
+      <c r="F4" s="528"/>
       <c r="G4" s="567"/>
       <c r="H4" s="205"/>
-      <c r="I4" s="525"/>
+      <c r="I4" s="528"/>
       <c r="J4" s="567"/>
       <c r="K4" s="27"/>
-      <c r="L4" s="525"/>
+      <c r="L4" s="528"/>
       <c r="M4" s="567"/>
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
@@ -27766,6 +27784,7 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="I4:J4"/>
   </mergeCells>
+  <phoneticPr fontId="65" type="noConversion"/>
   <conditionalFormatting sqref="G26:G27">
     <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
       <formula>AND(#REF!&lt;0.5)</formula>
@@ -27889,14 +27908,14 @@
     </row>
     <row r="4" spans="1:27" s="18" customFormat="1" ht="12">
       <c r="A4" s="27"/>
-      <c r="B4" s="525"/>
+      <c r="B4" s="528"/>
       <c r="C4" s="567"/>
       <c r="D4" s="496"/>
       <c r="E4" s="496"/>
-      <c r="F4" s="525"/>
+      <c r="F4" s="528"/>
       <c r="G4" s="567"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="525"/>
+      <c r="I4" s="528"/>
       <c r="J4" s="567"/>
       <c r="K4" s="27"/>
       <c r="L4" s="27"/>
@@ -28365,6 +28384,7 @@
     <mergeCell ref="A31:E32"/>
     <mergeCell ref="A17:H18"/>
   </mergeCells>
+  <phoneticPr fontId="65" type="noConversion"/>
   <conditionalFormatting sqref="N25:N26">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>AND(#REF!&lt;0.5)</formula>
@@ -28393,8 +28413,8 @@
   </sheetPr>
   <dimension ref="A1:AE51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:B24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.875" defaultRowHeight="14.25"/>
@@ -28422,22 +28442,22 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="14.1" customHeight="1">
-      <c r="L2" s="528" t="s">
+      <c r="L2" s="530" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="529" t="s">
+      <c r="M2" s="531" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="529"/>
-      <c r="O2" s="529" t="s">
+      <c r="N2" s="531"/>
+      <c r="O2" s="531" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="529"/>
-      <c r="Q2" s="529" t="s">
+      <c r="P2" s="531"/>
+      <c r="Q2" s="531" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="529"/>
-      <c r="S2" s="529"/>
+      <c r="R2" s="531"/>
+      <c r="S2" s="531"/>
     </row>
     <row r="3" spans="1:30" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A3" s="390" t="s">
@@ -28445,14 +28465,14 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="393"/>
-      <c r="L3" s="528"/>
-      <c r="M3" s="529"/>
-      <c r="N3" s="529"/>
-      <c r="O3" s="529"/>
-      <c r="P3" s="529"/>
-      <c r="Q3" s="529"/>
-      <c r="R3" s="529"/>
-      <c r="S3" s="529"/>
+      <c r="L3" s="530"/>
+      <c r="M3" s="531"/>
+      <c r="N3" s="531"/>
+      <c r="O3" s="531"/>
+      <c r="P3" s="531"/>
+      <c r="Q3" s="531"/>
+      <c r="R3" s="531"/>
+      <c r="S3" s="531"/>
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
@@ -28484,62 +28504,62 @@
     </row>
     <row r="5" spans="1:30" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="216"/>
-      <c r="B5" s="530" t="s">
-        <v>14</v>
+      <c r="B5" s="524" t="s">
+        <v>962</v>
       </c>
       <c r="C5" s="395"/>
-      <c r="D5" s="527" t="s">
+      <c r="D5" s="526" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="527"/>
-      <c r="F5" s="532"/>
-      <c r="G5" s="527" t="s">
+      <c r="E5" s="526"/>
+      <c r="F5" s="527"/>
+      <c r="G5" s="526" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="527"/>
-      <c r="I5" s="532"/>
+      <c r="H5" s="526"/>
+      <c r="I5" s="527"/>
       <c r="J5" s="383"/>
-      <c r="K5" s="525" t="s">
+      <c r="K5" s="528" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="527" t="s">
+      <c r="L5" s="526" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="527"/>
-      <c r="N5" s="527"/>
-      <c r="O5" s="527" t="s">
+      <c r="M5" s="526"/>
+      <c r="N5" s="526"/>
+      <c r="O5" s="526" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="527"/>
-      <c r="Q5" s="527"/>
+      <c r="P5" s="526"/>
+      <c r="Q5" s="526"/>
       <c r="R5" s="382"/>
-      <c r="S5" s="525" t="s">
+      <c r="S5" s="528" t="s">
         <v>865</v>
       </c>
-      <c r="T5" s="524" t="s">
+      <c r="T5" s="532" t="s">
         <v>866</v>
       </c>
-      <c r="U5" s="524"/>
-      <c r="V5" s="524"/>
-      <c r="W5" s="524" t="s">
+      <c r="U5" s="532"/>
+      <c r="V5" s="532"/>
+      <c r="W5" s="532" t="s">
         <v>867</v>
       </c>
-      <c r="X5" s="524"/>
-      <c r="Y5" s="524"/>
+      <c r="X5" s="532"/>
+      <c r="Y5" s="532"/>
       <c r="Z5" s="384"/>
-      <c r="AA5" s="525" t="s">
+      <c r="AA5" s="528" t="s">
         <v>22</v>
       </c>
-      <c r="AB5" s="525" t="s">
+      <c r="AB5" s="528" t="s">
         <v>23</v>
       </c>
-      <c r="AC5" s="527"/>
+      <c r="AC5" s="526"/>
     </row>
     <row r="6" spans="1:30" s="11" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
       <c r="A6" s="389" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="531"/>
+      <c r="B6" s="525"/>
       <c r="C6" s="396"/>
       <c r="D6" s="407" t="s">
         <v>25</v>
@@ -28560,7 +28580,7 @@
         <v>27</v>
       </c>
       <c r="J6" s="385"/>
-      <c r="K6" s="526"/>
+      <c r="K6" s="529"/>
       <c r="L6" s="385" t="s">
         <v>25</v>
       </c>
@@ -28580,7 +28600,7 @@
         <v>27</v>
       </c>
       <c r="R6" s="384"/>
-      <c r="S6" s="526"/>
+      <c r="S6" s="529"/>
       <c r="T6" s="219" t="s">
         <v>25</v>
       </c>
@@ -28600,7 +28620,7 @@
         <v>27</v>
       </c>
       <c r="Z6" s="384"/>
-      <c r="AA6" s="526"/>
+      <c r="AA6" s="529"/>
       <c r="AB6" s="385" t="s">
         <v>25</v>
       </c>
@@ -31014,22 +31034,23 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:S3"/>
+    <mergeCell ref="S5:S6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="Q2:S3"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="O5:Q5"/>
   </mergeCells>
+  <phoneticPr fontId="65" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="Contents!A1" display="Return to contents" xr:uid="{0D1D9B08-5509-43AD-8812-0FA2499E0648}"/>
     <hyperlink ref="Q2:Q3" r:id="rId1" display="This isn't what I need at all (please specify)" xr:uid="{564C239C-ACEE-4BF9-A3A3-63A28996918A}"/>
@@ -31082,16 +31103,16 @@
       </c>
     </row>
     <row r="2" spans="1:27" ht="14.1" customHeight="1">
-      <c r="F2" s="528" t="s">
+      <c r="F2" s="530" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="529" t="s">
+      <c r="G2" s="531" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="529" t="s">
+      <c r="H2" s="531" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="529" t="s">
+      <c r="I2" s="531" t="s">
         <v>13</v>
       </c>
       <c r="K2" s="420"/>
@@ -31105,10 +31126,10 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="393"/>
-      <c r="F3" s="528"/>
-      <c r="G3" s="529"/>
-      <c r="H3" s="529"/>
-      <c r="I3" s="529"/>
+      <c r="F3" s="530"/>
+      <c r="G3" s="531"/>
+      <c r="H3" s="531"/>
+      <c r="I3" s="531"/>
       <c r="K3" s="420"/>
       <c r="M3" s="420"/>
       <c r="O3" s="420"/>
@@ -32405,21 +32426,21 @@
     <row r="2" spans="1:25" s="154" customFormat="1" ht="14.25" customHeight="1">
       <c r="B2" s="153"/>
       <c r="J2" s="153"/>
-      <c r="L2" s="528" t="s">
+      <c r="L2" s="530" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="529" t="s">
+      <c r="M2" s="531" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="529"/>
-      <c r="O2" s="529" t="s">
+      <c r="N2" s="531"/>
+      <c r="O2" s="531" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="529"/>
-      <c r="Q2" s="529" t="s">
+      <c r="P2" s="531"/>
+      <c r="Q2" s="531" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="529"/>
+      <c r="R2" s="531"/>
       <c r="S2" s="83"/>
       <c r="T2" s="155"/>
       <c r="U2" s="155"/>
@@ -32432,35 +32453,35 @@
       <c r="A3" s="48" t="s">
         <v>922</v>
       </c>
-      <c r="L3" s="528"/>
-      <c r="M3" s="529"/>
-      <c r="N3" s="529"/>
-      <c r="O3" s="529"/>
-      <c r="P3" s="529"/>
-      <c r="Q3" s="529"/>
-      <c r="R3" s="529"/>
+      <c r="L3" s="530"/>
+      <c r="M3" s="531"/>
+      <c r="N3" s="531"/>
+      <c r="O3" s="531"/>
+      <c r="P3" s="531"/>
+      <c r="Q3" s="531"/>
+      <c r="R3" s="531"/>
       <c r="S3" s="18"/>
     </row>
     <row r="4" spans="1:25" s="18" customFormat="1" ht="12"/>
     <row r="5" spans="1:25" s="18" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="169"/>
-      <c r="B5" s="527" t="s">
+      <c r="B5" s="526" t="s">
         <v>877</v>
       </c>
-      <c r="C5" s="527"/>
-      <c r="D5" s="532"/>
+      <c r="C5" s="526"/>
+      <c r="D5" s="527"/>
       <c r="E5" s="408"/>
-      <c r="F5" s="527" t="s">
+      <c r="F5" s="526" t="s">
         <v>878</v>
       </c>
-      <c r="G5" s="527"/>
-      <c r="H5" s="532"/>
+      <c r="G5" s="526"/>
+      <c r="H5" s="527"/>
       <c r="I5" s="408"/>
-      <c r="J5" s="527" t="s">
+      <c r="J5" s="526" t="s">
         <v>879</v>
       </c>
-      <c r="K5" s="527"/>
-      <c r="L5" s="527"/>
+      <c r="K5" s="526"/>
+      <c r="L5" s="526"/>
       <c r="N5" s="438"/>
       <c r="O5" s="439"/>
       <c r="P5" s="439"/>
@@ -33830,6 +33851,7 @@
     <mergeCell ref="M2:N3"/>
     <mergeCell ref="O2:P3"/>
   </mergeCells>
+  <phoneticPr fontId="65" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="Contents!A1" display="Return to contents" xr:uid="{FA2E9D46-761E-4E92-83B7-5A5185747C79}"/>
     <hyperlink ref="A45" r:id="rId1" xr:uid="{5518CBEE-B661-460F-AF32-B14A580454E6}"/>
@@ -33889,21 +33911,21 @@
     <row r="2" spans="1:23" s="154" customFormat="1" ht="14.25">
       <c r="B2" s="153"/>
       <c r="J2" s="153"/>
-      <c r="M2" s="528" t="s">
+      <c r="M2" s="530" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="529" t="s">
+      <c r="N2" s="531" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="529"/>
-      <c r="P2" s="529" t="s">
+      <c r="O2" s="531"/>
+      <c r="P2" s="531" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="529"/>
-      <c r="R2" s="529" t="s">
+      <c r="Q2" s="531"/>
+      <c r="R2" s="531" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="529"/>
+      <c r="S2" s="531"/>
       <c r="T2" s="153"/>
       <c r="W2" s="155"/>
     </row>
@@ -33911,13 +33933,13 @@
       <c r="A3" s="48" t="s">
         <v>846</v>
       </c>
-      <c r="M3" s="528"/>
-      <c r="N3" s="529"/>
-      <c r="O3" s="529"/>
-      <c r="P3" s="529"/>
-      <c r="Q3" s="529"/>
-      <c r="R3" s="529"/>
-      <c r="S3" s="529"/>
+      <c r="M3" s="530"/>
+      <c r="N3" s="531"/>
+      <c r="O3" s="531"/>
+      <c r="P3" s="531"/>
+      <c r="Q3" s="531"/>
+      <c r="R3" s="531"/>
+      <c r="S3" s="531"/>
     </row>
     <row r="4" spans="1:23" s="49" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="56"/>
@@ -54630,6 +54652,7 @@
     <mergeCell ref="P2:Q3"/>
     <mergeCell ref="R2:S3"/>
   </mergeCells>
+  <phoneticPr fontId="65" type="noConversion"/>
   <conditionalFormatting sqref="M4:M5 M328 M330:M65523 C330:C65523">
     <cfRule type="expression" dxfId="32" priority="9" stopIfTrue="1">
       <formula>AND(#REF!&lt;0.5)</formula>
@@ -54727,21 +54750,21 @@
       <c r="E2" s="153"/>
       <c r="M2" s="170"/>
       <c r="O2" s="421"/>
-      <c r="P2" s="528" t="s">
+      <c r="P2" s="530" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="529" t="s">
+      <c r="Q2" s="531" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="529"/>
-      <c r="S2" s="529" t="s">
+      <c r="R2" s="531"/>
+      <c r="S2" s="531" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="529"/>
-      <c r="U2" s="529" t="s">
+      <c r="T2" s="531"/>
+      <c r="U2" s="531" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="529"/>
+      <c r="V2" s="531"/>
       <c r="W2" s="83"/>
       <c r="X2" s="155"/>
       <c r="Y2" s="155"/>
@@ -54759,13 +54782,13 @@
       <c r="D3" s="48"/>
       <c r="N3" s="48"/>
       <c r="O3" s="421"/>
-      <c r="P3" s="528"/>
-      <c r="Q3" s="529"/>
-      <c r="R3" s="529"/>
-      <c r="S3" s="529"/>
-      <c r="T3" s="529"/>
-      <c r="U3" s="529"/>
-      <c r="V3" s="529"/>
+      <c r="P3" s="530"/>
+      <c r="Q3" s="531"/>
+      <c r="R3" s="531"/>
+      <c r="S3" s="531"/>
+      <c r="T3" s="531"/>
+      <c r="U3" s="531"/>
+      <c r="V3" s="531"/>
       <c r="W3" s="210"/>
     </row>
     <row r="4" spans="1:29" ht="16.5" customHeight="1">
@@ -55718,6 +55741,7 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="P2:P3"/>
   </mergeCells>
+  <phoneticPr fontId="65" type="noConversion"/>
   <conditionalFormatting sqref="Q40:Q41">
     <cfRule type="expression" dxfId="26" priority="2" stopIfTrue="1">
       <formula>AND(#REF!&lt;0.5)</formula>
@@ -55778,21 +55802,21 @@
     <row r="2" spans="1:35" s="154" customFormat="1" ht="14.25">
       <c r="B2" s="153"/>
       <c r="J2" s="153"/>
-      <c r="K2" s="528" t="s">
+      <c r="K2" s="530" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="529" t="s">
+      <c r="L2" s="531" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="529"/>
-      <c r="N2" s="529" t="s">
+      <c r="M2" s="531"/>
+      <c r="N2" s="531" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="529"/>
-      <c r="P2" s="529" t="s">
+      <c r="O2" s="531"/>
+      <c r="P2" s="531" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="529"/>
+      <c r="Q2" s="531"/>
       <c r="R2" s="83"/>
       <c r="T2" s="155"/>
       <c r="U2" s="155"/>
@@ -55805,13 +55829,13 @@
       <c r="A3" s="48" t="s">
         <v>843</v>
       </c>
-      <c r="K3" s="528"/>
-      <c r="L3" s="529"/>
-      <c r="M3" s="529"/>
-      <c r="N3" s="529"/>
-      <c r="O3" s="529"/>
-      <c r="P3" s="529"/>
-      <c r="Q3" s="529"/>
+      <c r="K3" s="530"/>
+      <c r="L3" s="531"/>
+      <c r="M3" s="531"/>
+      <c r="N3" s="531"/>
+      <c r="O3" s="531"/>
+      <c r="P3" s="531"/>
+      <c r="Q3" s="531"/>
       <c r="R3" s="27"/>
       <c r="S3" s="48"/>
       <c r="T3" s="48"/>
@@ -55876,44 +55900,44 @@
       <c r="AA5" s="64"/>
     </row>
     <row r="6" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="525" t="s">
+      <c r="B6" s="528" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="525"/>
-      <c r="D6" s="525"/>
-      <c r="E6" s="525"/>
-      <c r="F6" s="525" t="s">
+      <c r="C6" s="528"/>
+      <c r="D6" s="528"/>
+      <c r="E6" s="528"/>
+      <c r="F6" s="528" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="525"/>
-      <c r="H6" s="525"/>
-      <c r="I6" s="525"/>
+      <c r="G6" s="528"/>
+      <c r="H6" s="528"/>
+      <c r="I6" s="528"/>
       <c r="J6" s="269"/>
-      <c r="K6" s="525" t="s">
+      <c r="K6" s="528" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="525"/>
-      <c r="M6" s="525"/>
-      <c r="N6" s="525"/>
-      <c r="O6" s="525" t="s">
+      <c r="L6" s="528"/>
+      <c r="M6" s="528"/>
+      <c r="N6" s="528"/>
+      <c r="O6" s="528" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="525"/>
-      <c r="Q6" s="525"/>
-      <c r="R6" s="525"/>
+      <c r="P6" s="528"/>
+      <c r="Q6" s="528"/>
+      <c r="R6" s="528"/>
       <c r="S6" s="274"/>
-      <c r="T6" s="525" t="s">
+      <c r="T6" s="528" t="s">
         <v>20</v>
       </c>
-      <c r="U6" s="525"/>
-      <c r="V6" s="525"/>
-      <c r="W6" s="525"/>
-      <c r="X6" s="525" t="s">
+      <c r="U6" s="528"/>
+      <c r="V6" s="528"/>
+      <c r="W6" s="528"/>
+      <c r="X6" s="528" t="s">
         <v>700</v>
       </c>
-      <c r="Y6" s="525"/>
-      <c r="Z6" s="525"/>
-      <c r="AA6" s="525"/>
+      <c r="Y6" s="528"/>
+      <c r="Z6" s="528"/>
+      <c r="AA6" s="528"/>
     </row>
     <row r="7" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="273" t="s">
@@ -56774,44 +56798,44 @@
     </row>
     <row r="20" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="237"/>
-      <c r="B20" s="525" t="s">
+      <c r="B20" s="528" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="525"/>
-      <c r="D20" s="525"/>
-      <c r="E20" s="525"/>
-      <c r="F20" s="525" t="s">
+      <c r="C20" s="528"/>
+      <c r="D20" s="528"/>
+      <c r="E20" s="528"/>
+      <c r="F20" s="528" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="525"/>
-      <c r="H20" s="525"/>
-      <c r="I20" s="525"/>
+      <c r="G20" s="528"/>
+      <c r="H20" s="528"/>
+      <c r="I20" s="528"/>
       <c r="J20" s="196"/>
-      <c r="K20" s="525" t="s">
+      <c r="K20" s="528" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="525"/>
-      <c r="M20" s="525"/>
-      <c r="N20" s="525"/>
-      <c r="O20" s="525" t="s">
+      <c r="L20" s="528"/>
+      <c r="M20" s="528"/>
+      <c r="N20" s="528"/>
+      <c r="O20" s="528" t="s">
         <v>19</v>
       </c>
-      <c r="P20" s="525"/>
-      <c r="Q20" s="525"/>
-      <c r="R20" s="525"/>
+      <c r="P20" s="528"/>
+      <c r="Q20" s="528"/>
+      <c r="R20" s="528"/>
       <c r="S20" s="201"/>
-      <c r="T20" s="525" t="s">
+      <c r="T20" s="528" t="s">
         <v>20</v>
       </c>
-      <c r="U20" s="525"/>
-      <c r="V20" s="525"/>
-      <c r="W20" s="525"/>
-      <c r="X20" s="525" t="s">
+      <c r="U20" s="528"/>
+      <c r="V20" s="528"/>
+      <c r="W20" s="528"/>
+      <c r="X20" s="528" t="s">
         <v>700</v>
       </c>
-      <c r="Y20" s="525"/>
-      <c r="Z20" s="525"/>
-      <c r="AA20" s="525"/>
+      <c r="Y20" s="528"/>
+      <c r="Z20" s="528"/>
+      <c r="AA20" s="528"/>
     </row>
     <row r="21" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A21" s="217" t="s">
@@ -58013,6 +58037,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="O20:R20"/>
     <mergeCell ref="T20:W20"/>
     <mergeCell ref="X20:AA20"/>
     <mergeCell ref="A34:O34"/>
@@ -58023,15 +58055,8 @@
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="O6:R6"/>
     <mergeCell ref="T6:W6"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="O20:R20"/>
   </mergeCells>
+  <phoneticPr fontId="65" type="noConversion"/>
   <conditionalFormatting sqref="C47:C48">
     <cfRule type="expression" dxfId="24" priority="2" stopIfTrue="1">
       <formula>AND(#REF!&lt;0.5)</formula>
@@ -58091,21 +58116,21 @@
     </row>
     <row r="2" spans="1:29" s="154" customFormat="1" ht="14.25">
       <c r="B2" s="153"/>
-      <c r="J2" s="528" t="s">
+      <c r="J2" s="530" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="529" t="s">
+      <c r="K2" s="531" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="529"/>
-      <c r="M2" s="529" t="s">
+      <c r="L2" s="531"/>
+      <c r="M2" s="531" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="529"/>
-      <c r="O2" s="529" t="s">
+      <c r="N2" s="531"/>
+      <c r="O2" s="531" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="529"/>
+      <c r="P2" s="531"/>
       <c r="Q2" s="83"/>
       <c r="T2" s="155"/>
       <c r="U2" s="155"/>
@@ -58126,57 +58151,57 @@
       <c r="G3" s="541"/>
       <c r="H3" s="541"/>
       <c r="I3" s="541"/>
-      <c r="J3" s="528"/>
-      <c r="K3" s="529"/>
-      <c r="L3" s="529"/>
-      <c r="M3" s="529"/>
-      <c r="N3" s="529"/>
-      <c r="O3" s="529"/>
-      <c r="P3" s="529"/>
+      <c r="J3" s="530"/>
+      <c r="K3" s="531"/>
+      <c r="L3" s="531"/>
+      <c r="M3" s="531"/>
+      <c r="N3" s="531"/>
+      <c r="O3" s="531"/>
+      <c r="P3" s="531"/>
       <c r="Q3" s="27"/>
     </row>
     <row r="4" spans="1:29" s="27" customFormat="1" ht="12"/>
     <row r="5" spans="1:29" s="18" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="27"/>
-      <c r="B5" s="525" t="s">
+      <c r="B5" s="528" t="s">
         <v>716</v>
       </c>
-      <c r="C5" s="525"/>
-      <c r="D5" s="525"/>
-      <c r="E5" s="525"/>
-      <c r="F5" s="525"/>
-      <c r="G5" s="525"/>
-      <c r="H5" s="525"/>
-      <c r="I5" s="525"/>
-      <c r="J5" s="525"/>
-      <c r="K5" s="525"/>
-      <c r="L5" s="525"/>
-      <c r="M5" s="525"/>
-      <c r="N5" s="525"/>
+      <c r="C5" s="528"/>
+      <c r="D5" s="528"/>
+      <c r="E5" s="528"/>
+      <c r="F5" s="528"/>
+      <c r="G5" s="528"/>
+      <c r="H5" s="528"/>
+      <c r="I5" s="528"/>
+      <c r="J5" s="528"/>
+      <c r="K5" s="528"/>
+      <c r="L5" s="528"/>
+      <c r="M5" s="528"/>
+      <c r="N5" s="528"/>
     </row>
     <row r="6" spans="1:29" s="18" customFormat="1" ht="39" customHeight="1">
       <c r="A6" s="169"/>
-      <c r="B6" s="525" t="s">
+      <c r="B6" s="528" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="525"/>
-      <c r="D6" s="525"/>
-      <c r="E6" s="525" t="s">
+      <c r="C6" s="528"/>
+      <c r="D6" s="528"/>
+      <c r="E6" s="528" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="525"/>
-      <c r="G6" s="525"/>
+      <c r="F6" s="528"/>
+      <c r="G6" s="528"/>
       <c r="H6" s="196"/>
-      <c r="I6" s="525" t="s">
+      <c r="I6" s="528" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="525"/>
-      <c r="K6" s="525"/>
-      <c r="L6" s="525" t="s">
+      <c r="J6" s="528"/>
+      <c r="K6" s="528"/>
+      <c r="L6" s="528" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="525"/>
-      <c r="N6" s="525"/>
+      <c r="M6" s="528"/>
+      <c r="N6" s="528"/>
     </row>
     <row r="7" spans="1:29" s="18" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A7" s="167" t="s">
@@ -58609,6 +58634,7 @@
     <mergeCell ref="M2:N3"/>
     <mergeCell ref="A3:I3"/>
   </mergeCells>
+  <phoneticPr fontId="65" type="noConversion"/>
   <conditionalFormatting sqref="C19:C20">
     <cfRule type="expression" dxfId="22" priority="2" stopIfTrue="1">
       <formula>AND(#REF!&lt;0.5)</formula>
@@ -58697,25 +58723,25 @@
       <c r="C1" s="206"/>
     </row>
     <row r="2" spans="1:64" ht="14.1" customHeight="1">
-      <c r="O2" s="528" t="s">
+      <c r="O2" s="530" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="529" t="s">
+      <c r="P2" s="531" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="529"/>
-      <c r="R2" s="529"/>
+      <c r="Q2" s="531"/>
+      <c r="R2" s="531"/>
       <c r="S2" s="494"/>
-      <c r="T2" s="529" t="s">
+      <c r="T2" s="531" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="529"/>
-      <c r="V2" s="529"/>
-      <c r="W2" s="529" t="s">
+      <c r="U2" s="531"/>
+      <c r="V2" s="531"/>
+      <c r="W2" s="531" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="529"/>
-      <c r="Y2" s="529"/>
+      <c r="X2" s="531"/>
+      <c r="Y2" s="531"/>
     </row>
     <row r="3" spans="1:64" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A3" s="492" t="s">
@@ -58726,17 +58752,17 @@
       <c r="D3" s="6"/>
       <c r="E3" s="393"/>
       <c r="K3" s="421"/>
-      <c r="O3" s="528"/>
-      <c r="P3" s="529"/>
-      <c r="Q3" s="529"/>
-      <c r="R3" s="529"/>
+      <c r="O3" s="530"/>
+      <c r="P3" s="531"/>
+      <c r="Q3" s="531"/>
+      <c r="R3" s="531"/>
       <c r="S3" s="494"/>
-      <c r="T3" s="529"/>
-      <c r="U3" s="529"/>
-      <c r="V3" s="529"/>
-      <c r="W3" s="529"/>
-      <c r="X3" s="529"/>
-      <c r="Y3" s="529"/>
+      <c r="T3" s="531"/>
+      <c r="U3" s="531"/>
+      <c r="V3" s="531"/>
+      <c r="W3" s="531"/>
+      <c r="X3" s="531"/>
+      <c r="Y3" s="531"/>
       <c r="Z3" s="10"/>
       <c r="AA3" s="7"/>
       <c r="AH3" s="48"/>
@@ -58840,105 +58866,105 @@
         <v>14</v>
       </c>
       <c r="C6" s="470"/>
-      <c r="D6" s="525" t="s">
+      <c r="D6" s="528" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="525"/>
-      <c r="F6" s="525"/>
-      <c r="G6" s="525" t="s">
+      <c r="E6" s="528"/>
+      <c r="F6" s="528"/>
+      <c r="G6" s="528" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="525"/>
-      <c r="I6" s="525"/>
+      <c r="H6" s="528"/>
+      <c r="I6" s="528"/>
       <c r="J6" s="416"/>
-      <c r="K6" s="525" t="s">
+      <c r="K6" s="528" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="525"/>
-      <c r="M6" s="525"/>
-      <c r="N6" s="525" t="s">
+      <c r="L6" s="528"/>
+      <c r="M6" s="528"/>
+      <c r="N6" s="528" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="525"/>
-      <c r="P6" s="525"/>
+      <c r="O6" s="528"/>
+      <c r="P6" s="528"/>
       <c r="R6" s="542" t="s">
         <v>14</v>
       </c>
-      <c r="T6" s="525" t="s">
+      <c r="T6" s="528" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="525"/>
-      <c r="V6" s="525"/>
-      <c r="W6" s="525" t="s">
+      <c r="U6" s="528"/>
+      <c r="V6" s="528"/>
+      <c r="W6" s="528" t="s">
         <v>19</v>
       </c>
-      <c r="X6" s="525"/>
-      <c r="Y6" s="525"/>
+      <c r="X6" s="528"/>
+      <c r="Y6" s="528"/>
       <c r="Z6" s="416"/>
-      <c r="AA6" s="525" t="s">
+      <c r="AA6" s="528" t="s">
         <v>20</v>
       </c>
-      <c r="AB6" s="525"/>
-      <c r="AC6" s="525"/>
-      <c r="AD6" s="525" t="s">
+      <c r="AB6" s="528"/>
+      <c r="AC6" s="528"/>
+      <c r="AD6" s="528" t="s">
         <v>21</v>
       </c>
-      <c r="AE6" s="525"/>
-      <c r="AF6" s="525"/>
+      <c r="AE6" s="528"/>
+      <c r="AF6" s="528"/>
       <c r="AH6" s="542" t="s">
         <v>14</v>
       </c>
-      <c r="AJ6" s="525" t="s">
+      <c r="AJ6" s="528" t="s">
         <v>18</v>
       </c>
-      <c r="AK6" s="525"/>
-      <c r="AL6" s="525"/>
-      <c r="AM6" s="525" t="s">
+      <c r="AK6" s="528"/>
+      <c r="AL6" s="528"/>
+      <c r="AM6" s="528" t="s">
         <v>19</v>
       </c>
-      <c r="AN6" s="525"/>
-      <c r="AO6" s="525"/>
+      <c r="AN6" s="528"/>
+      <c r="AO6" s="528"/>
       <c r="AP6" s="416"/>
-      <c r="AQ6" s="525" t="s">
+      <c r="AQ6" s="528" t="s">
         <v>20</v>
       </c>
-      <c r="AR6" s="525"/>
-      <c r="AS6" s="525"/>
-      <c r="AT6" s="525" t="s">
+      <c r="AR6" s="528"/>
+      <c r="AS6" s="528"/>
+      <c r="AT6" s="528" t="s">
         <v>21</v>
       </c>
-      <c r="AU6" s="525"/>
-      <c r="AV6" s="525"/>
+      <c r="AU6" s="528"/>
+      <c r="AV6" s="528"/>
       <c r="AX6" s="542" t="s">
         <v>14</v>
       </c>
-      <c r="AZ6" s="525" t="s">
+      <c r="AZ6" s="528" t="s">
         <v>18</v>
       </c>
-      <c r="BA6" s="525"/>
-      <c r="BB6" s="525"/>
-      <c r="BC6" s="525" t="s">
+      <c r="BA6" s="528"/>
+      <c r="BB6" s="528"/>
+      <c r="BC6" s="528" t="s">
         <v>19</v>
       </c>
-      <c r="BD6" s="525"/>
-      <c r="BE6" s="525"/>
+      <c r="BD6" s="528"/>
+      <c r="BE6" s="528"/>
       <c r="BF6" s="416"/>
-      <c r="BG6" s="525" t="s">
+      <c r="BG6" s="528" t="s">
         <v>20</v>
       </c>
-      <c r="BH6" s="525"/>
-      <c r="BI6" s="525"/>
-      <c r="BJ6" s="525" t="s">
+      <c r="BH6" s="528"/>
+      <c r="BI6" s="528"/>
+      <c r="BJ6" s="528" t="s">
         <v>21</v>
       </c>
-      <c r="BK6" s="525"/>
-      <c r="BL6" s="525"/>
+      <c r="BK6" s="528"/>
+      <c r="BL6" s="528"/>
     </row>
     <row r="7" spans="1:64" s="11" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A7" s="456" t="s">
         <v>905</v>
       </c>
-      <c r="B7" s="526"/>
+      <c r="B7" s="529"/>
       <c r="C7" s="471"/>
       <c r="D7" s="417" t="s">
         <v>25</v>
@@ -58978,7 +59004,7 @@
         <v>27</v>
       </c>
       <c r="Q7" s="152"/>
-      <c r="R7" s="526"/>
+      <c r="R7" s="529"/>
       <c r="S7" s="152"/>
       <c r="T7" s="417" t="s">
         <v>25</v>
@@ -59017,7 +59043,7 @@
       <c r="AF7" s="417" t="s">
         <v>27</v>
       </c>
-      <c r="AH7" s="526"/>
+      <c r="AH7" s="529"/>
       <c r="AJ7" s="417" t="s">
         <v>25</v>
       </c>
@@ -59055,7 +59081,7 @@
       <c r="AV7" s="417" t="s">
         <v>27</v>
       </c>
-      <c r="AX7" s="526"/>
+      <c r="AX7" s="529"/>
       <c r="AZ7" s="417" t="s">
         <v>25</v>
       </c>
@@ -61317,51 +61343,51 @@
         <v>14</v>
       </c>
       <c r="C26" s="470"/>
-      <c r="D26" s="525" t="s">
+      <c r="D26" s="528" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="525"/>
-      <c r="F26" s="525"/>
-      <c r="G26" s="525" t="s">
+      <c r="E26" s="528"/>
+      <c r="F26" s="528"/>
+      <c r="G26" s="528" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="525"/>
-      <c r="I26" s="525"/>
+      <c r="H26" s="528"/>
+      <c r="I26" s="528"/>
       <c r="J26" s="416"/>
-      <c r="K26" s="525" t="s">
+      <c r="K26" s="528" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="525"/>
-      <c r="M26" s="525"/>
-      <c r="N26" s="525" t="s">
+      <c r="L26" s="528"/>
+      <c r="M26" s="528"/>
+      <c r="N26" s="528" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="525"/>
-      <c r="P26" s="525"/>
+      <c r="O26" s="528"/>
+      <c r="P26" s="528"/>
       <c r="R26" s="542" t="s">
         <v>14</v>
       </c>
-      <c r="T26" s="525" t="s">
+      <c r="T26" s="528" t="s">
         <v>18</v>
       </c>
-      <c r="U26" s="525"/>
-      <c r="V26" s="525"/>
-      <c r="W26" s="525" t="s">
+      <c r="U26" s="528"/>
+      <c r="V26" s="528"/>
+      <c r="W26" s="528" t="s">
         <v>19</v>
       </c>
-      <c r="X26" s="525"/>
-      <c r="Y26" s="525"/>
+      <c r="X26" s="528"/>
+      <c r="Y26" s="528"/>
       <c r="Z26" s="416"/>
-      <c r="AA26" s="525" t="s">
+      <c r="AA26" s="528" t="s">
         <v>20</v>
       </c>
-      <c r="AB26" s="525"/>
-      <c r="AC26" s="525"/>
-      <c r="AD26" s="525" t="s">
+      <c r="AB26" s="528"/>
+      <c r="AC26" s="528"/>
+      <c r="AD26" s="528" t="s">
         <v>21</v>
       </c>
-      <c r="AE26" s="525"/>
-      <c r="AF26" s="525"/>
+      <c r="AE26" s="528"/>
+      <c r="AF26" s="528"/>
       <c r="AH26" s="33"/>
       <c r="AX26" s="33"/>
     </row>
@@ -61369,7 +61395,7 @@
       <c r="A27" s="456" t="s">
         <v>906</v>
       </c>
-      <c r="B27" s="526"/>
+      <c r="B27" s="529"/>
       <c r="C27" s="471"/>
       <c r="D27" s="417" t="s">
         <v>25</v>
@@ -61409,7 +61435,7 @@
         <v>27</v>
       </c>
       <c r="Q27" s="152"/>
-      <c r="R27" s="526"/>
+      <c r="R27" s="529"/>
       <c r="S27" s="152"/>
       <c r="T27" s="417" t="s">
         <v>25</v>
@@ -63759,32 +63785,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="AQ6:AS6"/>
-    <mergeCell ref="AT6:AV6"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AD26:AF26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="W26:Y26"/>
-    <mergeCell ref="B25:P25"/>
-    <mergeCell ref="R25:AF25"/>
-    <mergeCell ref="R5:AF5"/>
-    <mergeCell ref="AH5:AV5"/>
-    <mergeCell ref="A48:T48"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="A46:T47"/>
-    <mergeCell ref="AA26:AC26"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="AA6:AC6"/>
-    <mergeCell ref="AD6:AF6"/>
-    <mergeCell ref="N6:P6"/>
     <mergeCell ref="AX6:AX7"/>
     <mergeCell ref="AX5:BL5"/>
     <mergeCell ref="P2:R3"/>
@@ -63801,7 +63801,34 @@
     <mergeCell ref="W2:Y3"/>
     <mergeCell ref="AJ6:AL6"/>
     <mergeCell ref="AM6:AO6"/>
+    <mergeCell ref="R5:AF5"/>
+    <mergeCell ref="AH5:AV5"/>
+    <mergeCell ref="A48:T48"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="A46:T47"/>
+    <mergeCell ref="AA26:AC26"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="AA6:AC6"/>
+    <mergeCell ref="AD6:AF6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="AQ6:AS6"/>
+    <mergeCell ref="AT6:AV6"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AD26:AF26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="B25:P25"/>
+    <mergeCell ref="R25:AF25"/>
   </mergeCells>
+  <phoneticPr fontId="65" type="noConversion"/>
   <conditionalFormatting sqref="E24">
     <cfRule type="expression" dxfId="20" priority="5" stopIfTrue="1">
       <formula>AND(#REF!&lt;0.5)</formula>
@@ -64035,6 +64062,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="6c5f9a5a-0dad-4595-a39a-6416e9fb7054">
@@ -64046,15 +64082,6 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -64077,6 +64104,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55CDF630-9DF4-41E3-A03B-D058549E43D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC66D3C5-87D9-4C92-8253-E6E199DF4312}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -64091,12 +64126,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55CDF630-9DF4-41E3-A03B-D058549E43D9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>